--- a/LanguageCapabiltityMatrix.xlsx
+++ b/LanguageCapabiltityMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qrider/Workspace/PolyDev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{272AB385-7F26-554D-98E4-362235799BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A70B53E-2837-BE45-BBF7-0AA601B566C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1160" windowWidth="28240" windowHeight="16620" xr2:uid="{7E77776F-7B40-7245-AF7E-8A3DEB9BAB08}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16620" xr2:uid="{7E77776F-7B40-7245-AF7E-8A3DEB9BAB08}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Language Capability Matrix</t>
   </si>
@@ -98,20 +98,32 @@
     <t>Functions are 1st class citizens, Higher Order Funnctions</t>
   </si>
   <si>
-    <t>Poweful Type System, Strong type ionference</t>
-  </si>
-  <si>
     <t>Declarative Mutability, let vs. val</t>
   </si>
   <si>
     <t>Tail recursion optimization</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>Behavioral</t>
+  </si>
+  <si>
+    <t>Poweful Type System, Strong type inference</t>
+  </si>
+  <si>
+    <t>Software sanity &amp; integrity</t>
+  </si>
+  <si>
+    <t>Proper handling of Optionals vs. Null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +161,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,14 +190,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -186,6 +200,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -500,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB1DB5E-FCFB-D445-A7AF-4B29CC4A1EC4}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
@@ -524,231 +548,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="22">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="22">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="34">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="20">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="34">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="34">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="34">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="17">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="20">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="17">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="17">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="34">
-      <c r="A6" s="6" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="17">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="17">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="20">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="34">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="17">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17">
-      <c r="A10" s="6" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="17">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" ht="17">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
